--- a/config/foxconfig/card_group.xlsx
+++ b/config/foxconfig/card_group.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\FoxCard\config\foxconfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982EBD8-F290-414F-A54E-79F652521EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="0" windowWidth="12984" windowHeight="13176"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,13 +165,29 @@
   </si>
   <si>
     <t>cardgroup_fullhouseflush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始筹码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始倍率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级加成筹码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级加成倍率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -296,17 +318,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,26 +730,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -780,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -793,19 +812,19 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -815,19 +834,27 @@
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="7"/>
@@ -835,24 +862,24 @@
       <c r="F5" s="8">
         <v>5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>10</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="7"/>
@@ -860,24 +887,24 @@
       <c r="F6" s="8">
         <v>10</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>15</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="7"/>
@@ -885,24 +912,24 @@
       <c r="F7" s="8">
         <v>20</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="11">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>20</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="7"/>
@@ -910,24 +937,24 @@
       <c r="F8" s="8">
         <v>30</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="11">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="8">
         <v>20</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="7"/>
@@ -935,24 +962,24 @@
       <c r="F9" s="8">
         <v>30</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="11">
         <v>4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
         <v>30</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="7"/>
@@ -960,24 +987,24 @@
       <c r="F10" s="8">
         <v>35</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <v>4</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="8">
         <v>15</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="7"/>
@@ -985,24 +1012,24 @@
       <c r="F11" s="8">
         <v>40</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="11">
         <v>4</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
         <v>25</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="7"/>
@@ -1010,24 +1037,24 @@
       <c r="F12" s="8">
         <v>60</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="11">
         <v>7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="8">
         <v>30</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="7"/>
@@ -1035,24 +1062,24 @@
       <c r="F13" s="8">
         <v>100</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>8</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="8">
         <v>40</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="7"/>
@@ -1062,24 +1089,24 @@
       <c r="F14" s="8">
         <v>100</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="11">
         <v>8</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="8">
         <v>40</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="7"/>
@@ -1089,24 +1116,24 @@
       <c r="F15" s="8">
         <v>120</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="11">
         <v>12</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="8">
         <v>35</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="7"/>
@@ -1116,24 +1143,24 @@
       <c r="F16" s="8">
         <v>160</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="11">
         <v>16</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="8">
         <v>40</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="7"/>
@@ -1143,18 +1170,18 @@
       <c r="F17" s="8">
         <v>140</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="11">
         <v>14</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="8">
         <v>40</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="12"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/foxconfig/card_group.xlsx
+++ b/config/foxconfig/card_group.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\FoxCard\config\foxconfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982EBD8-F290-414F-A54E-79F652521EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -187,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,26 +724,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,7 +793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -824,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,7 +841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -872,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -897,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -922,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -947,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -972,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -997,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1022,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -1047,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -1072,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -1099,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -1126,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -1153,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
     </row>
   </sheetData>
